--- a/nlp pattern/grammar patterns.xlsx
+++ b/nlp pattern/grammar patterns.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECD6F97A-B18E-4202-9638-695C49F3F53B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{67608219-EF07-4A20-A2A7-C7AAC28BE5BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Click Pattern" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -846,21 +846,6 @@
 "digit type where"=word befind the number</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I fill blanket with a value, e.g. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10km</t>
-    </r>
-  </si>
-  <si>
     <t>There is "e.g., example, say" in the next sentence.
 There is a number and word combination behind the "e.g."
 "digit type what"=number
@@ -927,6 +912,38 @@
   </si>
   <si>
     <t>if a sentence has a key word "back", we should click back</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I fill blanket with a value。
+E.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10km</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I fill blanket with a value.
+E.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 km</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1413,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AF696E-BDDB-40B0-BA92-D9475DFFD0A8}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1583,10 +1600,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s">
         <v>79</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>57</v>
@@ -1599,8 +1616,8 @@
       <c r="B13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C13" t="s">
-        <v>71</v>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>57</v>
@@ -1625,13 +1642,13 @@
         <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
         <v>81</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
@@ -1654,7 +1671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5BC757-188A-4124-9439-AA42CCFB022C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1662,18 +1679,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
